--- a/data/trans_dic/P54_A_7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_7_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>4,79; 16,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>1,35; 7,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>3,88; 15,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>1,39; 5,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>5,34; 13,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,67; 5,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,72; 10,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,34; 2,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,59; 10,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,58; 2,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,94; 9,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,59; 1,85</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>2,46; 8,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,25; 2,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>4,85; 11,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,55; 4,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,6; 9,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,06; 2,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,07; 6,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,77; 3,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,51; 8,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,59; 3,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,2; 6,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,0; 0,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,99; 2,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 6,48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 2,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 8,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 2,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 6,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 2,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20292</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17702</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17122</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18437</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37414</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36140</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9730; 33983</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6939; 38840</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8393; 32983</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8695; 35764</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22367; 58219</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19080; 58246</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39574</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11529</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48050</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14774</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>87624</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26302</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23111; 63300</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4048; 25097</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30518; 72749</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7081; 27454</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>63529; 121183</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14348; 44721</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23462</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7936</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40656</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4898</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25188</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64118</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4898</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33125</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11056; 38478</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2125; 22836</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25335; 58739</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16965</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14468; 43331</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44642; 89419</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14792</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18875; 51782</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>86056</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15155</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>113689</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13537</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>199745</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28692</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>59985; 121816</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6515; 27648</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>84221; 153620</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15902</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4448; 28977</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>160293; 247917</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15287</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15857; 47540</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>169384</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>52323</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>219518</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>71936</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>388901</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>124259</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>133226; 209055</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>34982; 82954</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>179968; 265801</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2255; 23996</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>51934; 97471</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>334223; 452998</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2248; 21054</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>93795; 158137</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>